--- a/resources/templates/NOMADS_Library_Worksheet.xlsx
+++ b/resources/templates/NOMADS_Library_Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C422647-B289-4D3D-B5EF-B1A16D052529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156D473-4E86-459A-9B24-DD3B87489898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="368">
   <si>
     <t>ng</t>
   </si>
@@ -1142,19 +1142,7 @@
     <t>User</t>
   </si>
   <si>
-    <t>Brenda Mambwe</t>
-  </si>
-  <si>
-    <t>Mulenga Mwenda</t>
-  </si>
-  <si>
     <t>Initials</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>MM</t>
   </si>
   <si>
     <t>Exp ID:</t>
@@ -1358,9 +1346,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>contains look-up tables, assumptions etc</t>
-  </si>
-  <si>
     <t>exp_metadata</t>
   </si>
   <si>
@@ -1422,18 +1407,6 @@
   </si>
   <si>
     <t>Batch:</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>TES2022</t>
-  </si>
-  <si>
-    <t>GenE8</t>
-  </si>
-  <si>
-    <t>TES2023</t>
   </si>
   <si>
     <t>(e.g. A, B, C etc)</t>
@@ -1467,6 +1440,46 @@
       </rPr>
       <t xml:space="preserve"> script in this repository:</t>
     </r>
+  </si>
+  <si>
+    <t>User-defined</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Fiona Waiting</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>Terence Broad</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
+  </si>
+  <si>
+    <t>NB. The entries above are used for dropdown options in other tabs. To add additional entries and maintain the dropdowns, do the following:</t>
+  </si>
+  <si>
+    <t>4. Enter the new details into the new row</t>
+  </si>
+  <si>
+    <t>3. Select 'Shift cells down'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Right click on the highlighted cells and select 'insert'
+</t>
+  </si>
+  <si>
+    <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. G5 and H5</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1622,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,6 +1692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,7 +1847,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2002,22 +2021,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2026,13 +2101,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2046,9 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2071,68 +2146,17 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3042,7 +3066,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H10"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3051,140 +3075,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="A1" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="80" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="J2" s="78" t="s">
+      <c r="H2" s="85"/>
+      <c r="J2" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
       <c r="G3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="76"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+      <c r="A4" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="J4" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="77"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="85" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("SL",VLOOKUP(C3,reference!E7:F8,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="A5" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("SL",VLOOKUP(C3,reference!G3:H5,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="87"/>
+        <v>289</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="66" t="str">
+      <c r="B6" s="102"/>
+      <c r="C6" s="108" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT(C2,"_SeqLib_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="47"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="A7" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="A8" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" s="103"/>
+      <c r="A9" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="68"/>
       <c r="C9" s="90" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",_xlfn.CONCAT(C7,"_Batch",C8))</f>
         <v/>
@@ -3193,62 +3217,62 @@
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="30" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="105" t="str">
+      <c r="A10" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsm"))</f>
         <v/>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="A12" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -3261,18 +3285,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="I15" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="str">
@@ -3304,121 +3328,121 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="69" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69" t="str">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77" t="str">
         <f>_xlfn.CONCAT("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="I18" s="70" t="s">
+      <c r="G18" s="77"/>
+      <c r="I18" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="70"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="97" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="73" t="s">
+      <c r="E19" s="76"/>
+      <c r="F19" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="I19" s="67">
+      <c r="G19" s="109"/>
+      <c r="I19" s="72">
         <v>20</v>
       </c>
-      <c r="J19" s="67"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="97" t="str">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="76" t="str">
         <f>_xlfn.CONCAT(endrepair_maxvol, " - x")</f>
         <v>10 - x</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="I20" s="67">
+      <c r="G20" s="109"/>
+      <c r="I20" s="72">
         <v>65</v>
       </c>
-      <c r="J20" s="67"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="96">
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="95">
         <v>1.4</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="73">
+      <c r="E21" s="95"/>
+      <c r="F21" s="109">
         <f>SUM(D21*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="I21" s="67">
+      <c r="G21" s="109"/>
+      <c r="I21" s="72">
         <v>4</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="96">
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="95">
         <v>0.6</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="73">
+      <c r="E22" s="95"/>
+      <c r="F22" s="109">
         <f>SUM(D22*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="73"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="10"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="D23" s="75">
+      <c r="D23" s="111">
         <f>SUM(D21:D22)+endrepair_maxvol</f>
         <v>12</v>
       </c>
-      <c r="E23" s="75"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="20" t="str">
         <f>_xlfn.CONCAT("Add ",SUM(D21:D22)," µl of MM to each")</f>
         <v>Add 2 µl of MM to each</v>
@@ -3454,104 +3478,104 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="69" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69" t="str">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77" t="str">
         <f>_xlfn.CONCAT("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="70"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="97">
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="76">
         <v>0.5</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="73" t="s">
+      <c r="E27" s="76"/>
+      <c r="F27" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="73"/>
-      <c r="I27" s="67">
+      <c r="G27" s="109"/>
+      <c r="I27" s="72">
         <v>20</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="97">
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="76">
         <v>6</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="73">
+      <c r="E28" s="76"/>
+      <c r="F28" s="109">
         <f>SUM(D28*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="I28" s="67">
+      <c r="G28" s="109"/>
+      <c r="I28" s="72">
         <v>65</v>
       </c>
-      <c r="J28" s="67"/>
+      <c r="J28" s="72"/>
       <c r="K28" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="97">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="76">
         <v>0.2</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="73">
+      <c r="E29" s="76"/>
+      <c r="F29" s="109">
         <f>SUM(D29*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="73"/>
-      <c r="I29" s="67">
+      <c r="G29" s="109"/>
+      <c r="I29" s="72">
         <v>8</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="D30" s="106">
+      <c r="D30" s="75">
         <f>SUM(D27:D29)+D23</f>
         <v>18.7</v>
       </c>
-      <c r="E30" s="106"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="20" t="str">
         <f>_xlfn.CONCAT("Add ",SUM(D28:D29)," µl of MM to each")</f>
         <v>Add 6.2 µl of MM to each</v>
@@ -3561,7 +3585,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="14"/>
@@ -3579,20 +3603,20 @@
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
@@ -3615,10 +3639,10 @@
       <c r="C36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="94"/>
+      <c r="E36" s="88"/>
     </row>
     <row r="37" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
@@ -3627,11 +3651,11 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="107">
+      <c r="D37" s="80">
         <f>SUM(B37*C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="107"/>
+      <c r="E37" s="80"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F38"/>
@@ -3640,7 +3664,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3662,126 +3686,126 @@
       <c r="H40"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="93" t="s">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="93"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="10"/>
       <c r="H41"/>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="70"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="92">
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="74">
         <f>IF(B37="",adaptlig_maxvol,IF(SUM(adaptlig_targetmass/D37)&gt;adaptlig_maxvol,adaptlig_maxvol,SUM(adaptlig_targetmass/D37)))</f>
         <v>65</v>
       </c>
-      <c r="E42" s="92"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
       <c r="H42"/>
-      <c r="I42" s="67" t="s">
+      <c r="I42" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="67"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="92">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="74">
         <f>IFERROR(SUM(adaptlig_maxvol-D42),"")</f>
         <v>0</v>
       </c>
-      <c r="E43" s="92"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="89">
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="79">
         <v>5</v>
       </c>
-      <c r="E44" s="89"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="89">
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="79">
         <v>20</v>
       </c>
-      <c r="E45" s="89"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="89">
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="79">
         <v>10</v>
       </c>
-      <c r="E46" s="89"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="102">
+      <c r="D47" s="89">
         <f>SUM(D42:D46)</f>
         <v>100</v>
       </c>
-      <c r="E47" s="102"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="10"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -3795,42 +3819,42 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="95" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95" t="s">
+      <c r="D52" s="78"/>
+      <c r="E52" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="98" t="s">
+      <c r="F52" s="78"/>
+      <c r="G52" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="95"/>
+      <c r="H52" s="78"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="108">
+      <c r="A53" s="82">
         <f>SUM(D47*0.5)</f>
         <v>50</v>
       </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="68">
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="84">
         <f>SUM(C53*E53)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="68"/>
+      <c r="H53" s="84"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3844,61 +3868,61 @@
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="93" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="93"/>
+      <c r="E57" s="94"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="92">
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="74">
         <f>IF(C53="",flowcell_maxvol,IF(SUM(flowcell_targetmass/G53)&gt;flowcell_maxvol,flowcell_maxvol,SUM(flowcell_targetmass/G53)))</f>
         <v>12</v>
       </c>
-      <c r="E58" s="92"/>
+      <c r="E58" s="74"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="92" t="str">
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="74" t="str">
         <f>IFERROR((IF(SUM(12-D58)=0,"-",SUM(12-D58))),"")</f>
         <v>-</v>
       </c>
-      <c r="E59" s="92"/>
+      <c r="E59" s="74"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="100">
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="73">
         <v>37.5</v>
       </c>
-      <c r="E60" s="100"/>
+      <c r="E60" s="73"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="100">
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="73">
         <v>25.5</v>
       </c>
-      <c r="E61" s="100"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="12" t="s">
         <v>142</v>
       </c>
@@ -3914,82 +3938,175 @@
       <c r="C63" s="21"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" s="68"/>
+      <c r="A64" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="92"/>
+      <c r="C64" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="84"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="89" t="str">
+      <c r="A67" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="92"/>
+      <c r="C67" s="79" t="str">
         <f>IF(flowcell_status="New",0,"")</f>
         <v/>
       </c>
-      <c r="D67" s="89"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="68" t="s">
+      <c r="B68" s="92"/>
+      <c r="C68" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="68"/>
+      <c r="D68" s="84"/>
       <c r="E68" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
       <c r="E69" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="72"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
       <c r="E70" s="11" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -4014,99 +4131,6 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C7:C8 C11:C12 B37:C37 C53:E53 C64:C66 C68:C70">
     <cfRule type="expression" dxfId="8" priority="5">
@@ -4171,17 +4195,17 @@
           </x14:formula1>
           <xm:sqref>C66</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." xr:uid="{8C7E2C1B-80DC-4BB6-92F9-B434AEC4D204}">
+          <x14:formula1>
+            <xm:f>reference!$E$11:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:F7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
           <x14:formula1>
-            <xm:f>reference!$E$7:$E$8</xm:f>
+            <xm:f>reference!$G$3:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." xr:uid="{8C7E2C1B-80DC-4BB6-92F9-B434AEC4D204}">
-          <x14:formula1>
-            <xm:f>reference!$E$15:$E$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4211,25 +4235,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="110"/>
+      <c r="D1" s="113"/>
       <c r="E1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -4245,31 +4269,31 @@
         <v>113</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>256</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>255</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>169</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7565,7 +7589,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7581,77 +7605,77 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7665,20 +7689,20 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.875" customWidth="1"/>
@@ -7693,7 +7717,9 @@
       <c r="E1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -7704,10 +7730,16 @@
       <c r="E2" s="49" t="s">
         <v>138</v>
       </c>
+      <c r="G2" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -7718,10 +7750,16 @@
       <c r="E3" t="s">
         <v>139</v>
       </c>
+      <c r="G3" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -7733,10 +7771,16 @@
       <c r="E4" t="s">
         <v>140</v>
       </c>
+      <c r="G4" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5">
         <v>800</v>
@@ -7745,10 +7789,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="8"/>
+      <c r="G5" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <v>65</v>
@@ -7757,15 +7807,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>271</v>
+        <v>138</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B7">
         <v>400</v>
@@ -7774,15 +7824,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" t="s">
-        <v>272</v>
+        <v>139</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -7791,75 +7841,61 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" t="s">
-        <v>273</v>
+        <v>140</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="67" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
-      <c r="E10" s="49" t="s">
-        <v>138</v>
+      <c r="G10" s="67" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B12">
         <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="49" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="2"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048576" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7889,73 +7925,73 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -8084,28 +8120,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/resources/templates/NOMADS_Library_Worksheet.xlsx
+++ b/resources/templates/NOMADS_Library_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156D473-4E86-459A-9B24-DD3B87489898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9281396B-F627-4ECA-ACC6-725C77E0D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="372">
   <si>
     <t>ng</t>
   </si>
@@ -1480,6 +1480,18 @@
   </si>
   <si>
     <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. G5 and H5</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>CoRE</t>
+  </si>
+  <si>
+    <t>ProACT</t>
+  </si>
+  <si>
+    <t>MIS2024</t>
   </si>
 </sst>
 </file>
@@ -2026,73 +2038,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2101,16 +2062,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2124,6 +2082,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2146,17 +2107,68 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3066,7 +3078,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3075,204 +3087,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="85" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="J2" s="99" t="s">
+      <c r="H2" s="83"/>
+      <c r="J2" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="99"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" t="s">
         <v>271</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="97"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="98"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105" t="str">
+      <c r="B5" s="85"/>
+      <c r="C5" s="88" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("SL",VLOOKUP(C3,reference!G3:H5,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="K5" s="107"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="108" t="str">
+      <c r="B6" s="85"/>
+      <c r="C6" s="69" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT(C2,"_SeqLib_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="47"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="107" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="107" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="90" t="str">
+      <c r="B9" s="106"/>
+      <c r="C9" s="93" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",_xlfn.CONCAT(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="70" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsm"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsa"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -3292,11 +3304,11 @@
       <c r="D15" s="10"/>
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="str">
@@ -3328,121 +3340,121 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="77" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77" t="str">
+      <c r="E18" s="72"/>
+      <c r="F18" s="72" t="str">
         <f>_xlfn.CONCAT("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="I18" s="86" t="s">
+      <c r="G18" s="72"/>
+      <c r="I18" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="76" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="109" t="s">
+      <c r="E19" s="100"/>
+      <c r="F19" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="I19" s="72">
+      <c r="G19" s="76"/>
+      <c r="I19" s="70">
         <v>20</v>
       </c>
-      <c r="J19" s="72"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="76" t="str">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="100" t="str">
         <f>_xlfn.CONCAT(endrepair_maxvol, " - x")</f>
         <v>10 - x</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="109" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="I20" s="72">
+      <c r="G20" s="76"/>
+      <c r="I20" s="70">
         <v>65</v>
       </c>
-      <c r="J20" s="72"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="95">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="99">
         <v>1.4</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="109">
+      <c r="E21" s="99"/>
+      <c r="F21" s="76">
         <f>SUM(D21*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="I21" s="72">
+      <c r="G21" s="76"/>
+      <c r="I21" s="70">
         <v>4</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="95">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="99">
         <v>0.6</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="109">
+      <c r="E22" s="99"/>
+      <c r="F22" s="76">
         <f>SUM(D22*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="109"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="10"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="D23" s="111">
+      <c r="D23" s="78">
         <f>SUM(D21:D22)+endrepair_maxvol</f>
         <v>12</v>
       </c>
-      <c r="E23" s="111"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="20" t="str">
         <f>_xlfn.CONCAT("Add ",SUM(D21:D22)," µl of MM to each")</f>
         <v>Add 2 µl of MM to each</v>
@@ -3478,104 +3490,104 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77" t="str">
+      <c r="E26" s="72"/>
+      <c r="F26" s="72" t="str">
         <f>_xlfn.CONCAT("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="86" t="s">
+      <c r="I26" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="76">
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="100">
         <v>0.5</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="109" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="I27" s="72">
+      <c r="G27" s="76"/>
+      <c r="I27" s="70">
         <v>20</v>
       </c>
-      <c r="J27" s="72"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="76">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="100">
         <v>6</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="109">
+      <c r="E28" s="100"/>
+      <c r="F28" s="76">
         <f>SUM(D28*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="I28" s="72">
+      <c r="G28" s="76"/>
+      <c r="I28" s="70">
         <v>65</v>
       </c>
-      <c r="J28" s="72"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="76">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="100">
         <v>0.2</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="109">
+      <c r="E29" s="100"/>
+      <c r="F29" s="76">
         <f>SUM(D29*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="109"/>
-      <c r="I29" s="72">
+      <c r="G29" s="76"/>
+      <c r="I29" s="70">
         <v>8</v>
       </c>
-      <c r="J29" s="72"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="D30" s="75">
+      <c r="D30" s="109">
         <f>SUM(D27:D29)+D23</f>
         <v>18.7</v>
       </c>
-      <c r="E30" s="75"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="20" t="str">
         <f>_xlfn.CONCAT("Add ",SUM(D28:D29)," µl of MM to each")</f>
         <v>Add 6.2 µl of MM to each</v>
@@ -3603,20 +3615,20 @@
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
@@ -3639,10 +3651,10 @@
       <c r="C36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="97"/>
     </row>
     <row r="37" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
@@ -3651,11 +3663,11 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="80">
+      <c r="D37" s="110">
         <f>SUM(B37*C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="110"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F38"/>
@@ -3686,104 +3698,104 @@
       <c r="H40"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="94" t="s">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="94"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="10"/>
       <c r="H41"/>
-      <c r="I41" s="86" t="s">
+      <c r="I41" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="86"/>
+      <c r="J41" s="73"/>
       <c r="K41" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="74">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="95">
         <f>IF(B37="",adaptlig_maxvol,IF(SUM(adaptlig_targetmass/D37)&gt;adaptlig_maxvol,adaptlig_maxvol,SUM(adaptlig_targetmass/D37)))</f>
         <v>65</v>
       </c>
-      <c r="E42" s="74"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
       <c r="H42"/>
-      <c r="I42" s="72" t="s">
+      <c r="I42" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="72"/>
+      <c r="J42" s="70"/>
       <c r="K42" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="74">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="95">
         <f>IFERROR(SUM(adaptlig_maxvol-D42),"")</f>
         <v>0</v>
       </c>
-      <c r="E43" s="74"/>
+      <c r="E43" s="95"/>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="79">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="92">
         <v>5</v>
       </c>
-      <c r="E44" s="79"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="79">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="92">
         <v>20</v>
       </c>
-      <c r="E45" s="79"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="79">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="92">
         <v>10</v>
       </c>
-      <c r="E46" s="79"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="89">
+      <c r="D47" s="105">
         <f>SUM(D42:D46)</f>
         <v>100</v>
       </c>
-      <c r="E47" s="89"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="10"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3792,20 +3804,20 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -3819,38 +3831,38 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="78" t="s">
+      <c r="B52" s="101"/>
+      <c r="C52" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78" t="s">
+      <c r="D52" s="98"/>
+      <c r="E52" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="81" t="s">
+      <c r="F52" s="98"/>
+      <c r="G52" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="78"/>
+      <c r="H52" s="98"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="82">
+      <c r="A53" s="111">
         <f>SUM(D47*0.5)</f>
         <v>50</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84">
+      <c r="B53" s="111"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="71">
         <f>SUM(C53*E53)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="84"/>
+      <c r="H53" s="71"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
@@ -3868,61 +3880,61 @@
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="94" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="94"/>
+      <c r="E57" s="96"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="74">
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="95">
         <f>IF(C53="",flowcell_maxvol,IF(SUM(flowcell_targetmass/G53)&gt;flowcell_maxvol,flowcell_maxvol,SUM(flowcell_targetmass/G53)))</f>
         <v>12</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="95"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="74" t="str">
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="95" t="str">
         <f>IFERROR((IF(SUM(12-D58)=0,"-",SUM(12-D58))),"")</f>
         <v>-</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="95"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="73">
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="103">
         <v>37.5</v>
       </c>
-      <c r="E60" s="73"/>
+      <c r="E60" s="103"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="73">
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="103">
         <v>25.5</v>
       </c>
-      <c r="E61" s="73"/>
+      <c r="E61" s="103"/>
       <c r="F61" s="12" t="s">
         <v>142</v>
       </c>
@@ -3938,82 +3950,175 @@
       <c r="C63" s="21"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="96" t="s">
+      <c r="B64" s="75"/>
+      <c r="C64" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="84"/>
+      <c r="D64" s="71"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="79" t="str">
+      <c r="B67" s="75"/>
+      <c r="C67" s="92" t="str">
         <f>IF(flowcell_status="New",0,"")</f>
         <v/>
       </c>
-      <c r="D67" s="79"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="84" t="s">
+      <c r="B68" s="75"/>
+      <c r="C68" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="84"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="11" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J5:K6"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="I29:J29"/>
@@ -4038,99 +4143,6 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C7:C8 C11:C12 B37:C37 C53:E53 C64:C66 C68:C70">
     <cfRule type="expression" dxfId="8" priority="5">
@@ -4197,7 +4209,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." xr:uid="{8C7E2C1B-80DC-4BB6-92F9-B434AEC4D204}">
           <x14:formula1>
-            <xm:f>reference!$E$11:$E$14</xm:f>
+            <xm:f>reference!$J$3:$J$5</xm:f>
           </x14:formula1>
           <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
@@ -7589,7 +7601,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7692,7 +7704,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7736,6 +7748,9 @@
       <c r="H2" s="65" t="s">
         <v>269</v>
       </c>
+      <c r="J2" s="65" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7756,6 +7771,9 @@
       <c r="H3" s="66" t="s">
         <v>357</v>
       </c>
+      <c r="J3" s="66" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -7777,6 +7795,9 @@
       <c r="H4" s="66" t="s">
         <v>359</v>
       </c>
+      <c r="J4" s="66" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -7794,6 +7815,9 @@
       </c>
       <c r="H5" s="66" t="s">
         <v>361</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/resources/templates/NOMADS_Library_Worksheet.xlsx
+++ b/resources/templates/NOMADS_Library_Worksheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7FA9BE-2B7E-4BC1-A04F-B41C6EAF28AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68CA263-B003-4831-AB45-12E7BEB9C1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="1" r:id="rId1"/>
     <sheet name="Library" sheetId="2" r:id="rId2"/>
-    <sheet name="Instructions" sheetId="3" r:id="rId3"/>
-    <sheet name="reference" sheetId="4" r:id="rId4"/>
+    <sheet name="reference" sheetId="4" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="3" r:id="rId4"/>
     <sheet name="expt_metadata" sheetId="5" r:id="rId5"/>
     <sheet name="rxn_metadata" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="386">
   <si>
     <t>NOMADS Library Worksheet</t>
   </si>
@@ -380,9 +380,6 @@
     <t>R10.4.1</t>
   </si>
   <si>
-    <t>(assume R10.4.1)</t>
-  </si>
-  <si>
     <t>Flow cell check:</t>
   </si>
   <si>
@@ -1069,85 +1066,22 @@
     <t>96</t>
   </si>
   <si>
-    <t>Instructions:</t>
-  </si>
-  <si>
-    <t>This template is to be used to record library and sequencing steps as part of a NOMADS sequencing run. There are two tabs to complete:</t>
-  </si>
-  <si>
     <t>Assay</t>
   </si>
   <si>
-    <t>A simplified list of assay steps / componentes including master mix calculations and plate layouts</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
     <t>Sample level details associated with the library procedure</t>
   </si>
   <si>
-    <t>The following tabs should not need to be altered, except for potentially adding user names</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
-    <t>contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
-  </si>
-  <si>
     <t>exp_metadata</t>
   </si>
   <si>
-    <t>Contains experiment level metadata for export</t>
-  </si>
-  <si>
     <t>rxn_metadata</t>
-  </si>
-  <si>
-    <t>Contains rxn level metadata for export</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">All experimental metadata can be extracted to a csv file for nomadic pipeline ingestion using the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>warehouse.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> script in this repository:</t>
-    </r>
-  </si>
-  <si>
-    <t>Additional notes:</t>
-  </si>
-  <si>
-    <t>1. Ensure that all identifier columns (sWGA / PCR) have a value for each reaction. Enter NA (e.g. with a control) where there is none</t>
-  </si>
-  <si>
-    <t>2. Do not overwrite any shaded cells - if a change needs to be made to the worksheet then report the issue.</t>
   </si>
   <si>
     <t>Assumptions</t>
@@ -1329,9 +1263,6 @@
   </si>
   <si>
     <t>Changelog from prev version</t>
-  </si>
-  <si>
-    <t>Moved DNA mass targets to Assay tab</t>
   </si>
   <si>
     <t>1. Add PCR product per sample for end repair:</t>
@@ -1406,9 +1337,6 @@
     </r>
   </si>
   <si>
-    <t>Changed all CONCAT refs to CONCATENATE for translations</t>
-  </si>
-  <si>
     <t>Project A</t>
   </si>
   <si>
@@ -1416,6 +1344,219 @@
   </si>
   <si>
     <t>Project C</t>
+  </si>
+  <si>
+    <t>Missing values evaluate to empty cells in metadata tabs</t>
+  </si>
+  <si>
+    <t>Sheets protected to prevent users inadvertantly overwriting calculations</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>There are two tabs to complete (green), two tabs for exporting data (red) and one tab (orange) for reference values:</t>
+  </si>
+  <si>
+    <t>A simplified list of assay steps / components including master mix calculations and plate layouts</t>
+  </si>
+  <si>
+    <t>Contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
+  </si>
+  <si>
+    <t>To prevent inadvertent loss of data, cells are protected from editing.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>This template is to be used to record  library and sequencing steps as part of a NOMADS sequencing run.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter all experimental and sample details on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Assay'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Library'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tabs before / during the experiment</t>
+    </r>
+  </si>
+  <si>
+    <t>Please contact the NOMADS team if any changes need to be made to the template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contains rxn level metadata for export with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>warehouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NO EDITING)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contains experiment level metadata for export with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>warehouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NO EDITING)</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. All experimental data can now be extracted using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>warehouse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.  Ensure that all identifier columns (sWGA / PCR) have a value for each reaction. If there was no sWGA step, enter  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'no swga'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'sWGA identifier'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> column</t>
+    </r>
+  </si>
+  <si>
+    <t>ONT Platforms</t>
+  </si>
+  <si>
+    <t>Mk1c</t>
+  </si>
+  <si>
+    <t>GridIon</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Flow Chemistry</t>
+  </si>
+  <si>
+    <t>R9.4.1</t>
+  </si>
+  <si>
+    <t>µl (recommend 1500 ng)</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1567,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1490,30 +1631,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1533,8 +1650,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1605,6 +1775,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1735,14 +1923,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1771,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1795,15 +1983,8 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1817,102 +1998,96 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1938,8 +2113,15 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1971,11 +2153,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,26 +2169,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2022,6 +2208,57 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2032,7 +2269,65 @@
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2213,23 +2508,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A2:M98" totalsRowShown="0">
   <autoFilter ref="A2:M98" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Extraction ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="sWGA Identifier"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PCR Identifier"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qubit PCR [DNA] (ng/µl)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PCR Dilution Factor"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Extraction ID" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="sWGA Identifier" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PCR Identifier" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PCR Dilution Factor" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PCR prodct (µl) for End-repair"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NF H20 (µl)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SeqLib Identifier">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PCR prodct (µl) for End-repair" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NF H20 (µl)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SeqLib Identifier" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2237,31 +2532,77 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:W2" totalsRowShown="0">
   <autoFilter ref="A1:W2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="expt_id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="expt_date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="expt_user"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="expt_type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="expt_version"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="expt_notes"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="expt_summary"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="expt_rxns"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="endrepair_targetmass_ng"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="endrepair_maxvol_ul"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="endrepair_dnaconc_ngul"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="adaptlig_targetmass_ng"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="adaptlig_maxvol_ul"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="library_dnaconc_ngul"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="seq_platform"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="flowcell_targetmass_ng"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="flowcell_maxvol_ul"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="flowcell_id"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="flowcell_chemistry"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="flowcell_status"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="flowcell_checkpores"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="flowcell_runlength_hrs"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="flowcell_prevusage_hrs"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="expt_id">
+      <calculatedColumnFormula>IF(LEN(exp_id)=0,"",exp_id)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="expt_date">
+      <calculatedColumnFormula>IF(LEN(exp_date)=0,"",exp_date)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="expt_user">
+      <calculatedColumnFormula>IF(LEN(exp_user)=0,"",exp_user)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="expt_type">
+      <calculatedColumnFormula>IF(LEN(exp_type)=0,"",exp_type)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="expt_version">
+      <calculatedColumnFormula>IF(LEN(exp_version)=0,"",exp_version)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="expt_notes">
+      <calculatedColumnFormula>IF(LEN(exp_notes)=0,"",exp_notes)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="expt_summary">
+      <calculatedColumnFormula>IF(LEN(exp_summary)=0,"",exp_summary)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="expt_rxns">
+      <calculatedColumnFormula>IF(LEN(exp_rxns)=0,"",exp_rxns)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="endrepair_targetmass_ng">
+      <calculatedColumnFormula>IF(LEN(endrepair_targetmass)=0,"",endrepair_targetmass)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="endrepair_maxvol_ul">
+      <calculatedColumnFormula>IF(LEN(endrepair_maxvol)=0,"",endrepair_maxvol)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="endrepair_dnaconc_ngul">
+      <calculatedColumnFormula>IF(DNAconc_pooled=0,"",DNAconc_pooled)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="adaptlig_targetmass_ng">
+      <calculatedColumnFormula>IF(adaptlig_targetmass=0,"",adaptlig_targetmass)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="adaptlig_maxvol_ul">
+      <calculatedColumnFormula>IF(adaptlig_dna_maxvol=0,"",adaptlig_dna_maxvol)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="library_dnaconc_ngul">
+      <calculatedColumnFormula>IF(DNAconc_library=0,"",DNAconc_library)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="seq_platform">
+      <calculatedColumnFormula>IF(LEN(seq_platform)=0,"",seq_platform)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="flowcell_targetmass_ng">
+      <calculatedColumnFormula>IF(LEN(flowcell_targetmass)=0,"",flowcell_targetmass)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="flowcell_maxvol_ul">
+      <calculatedColumnFormula>IF(LEN(flowcell_maxvol)=0,"",flowcell_maxvol)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="flowcell_id">
+      <calculatedColumnFormula>IF(LEN(flowcell_id)=0,"",flowcell_id)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="flowcell_chemistry">
+      <calculatedColumnFormula>IF(LEN(flowcell_chemisty)=0,"",flowcell_chemisty)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="flowcell_status">
+      <calculatedColumnFormula>IF(LEN(flowcell_status)=0,"",flowcell_status)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="flowcell_checkpores">
+      <calculatedColumnFormula>IF(LEN(flowcell_checkpores)=0,"",flowcell_checkpores)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="flowcell_runlength_hrs">
+      <calculatedColumnFormula>IF(LEN(flowcell_runduration)=0,"",flowcell_runduration)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="flowcell_prevusage_hrs">
+      <calculatedColumnFormula>IF(LEN(flowcell_usage_hrs)=0,"",flowcell_usage_hrs)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2280,7 +2621,7 @@
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="endrepair_vol_ul"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2466,8 +2807,8 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2476,204 +2817,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="75" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="J2" s="94" t="s">
+      <c r="H2" s="64"/>
+      <c r="J2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="94"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="96"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="97"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="64" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="62" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SL",VLOOKUP(C3,reference!G3:H5,2,FALSE()),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="88"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="89" t="str">
+      <c r="B6" s="76"/>
+      <c r="C6" s="78" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE(C2,"_SeqLib_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="5"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
@@ -2684,20 +3025,21 @@
       </c>
       <c r="C15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="9" t="str">
         <f>CONCATENATE("ng added, max vol = ", endrepair_maxvol, " µl")</f>
         <v>ng added, max vol = 10 µl</v>
@@ -2711,125 +3053,125 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="45">
         <v>0.2</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="82" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82" t="str">
+      <c r="E18" s="71"/>
+      <c r="F18" s="71" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="I18" s="65" t="s">
+      <c r="G18" s="71"/>
+      <c r="I18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="77" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="I19" s="62">
+      <c r="G19" s="67"/>
+      <c r="I19" s="61">
         <v>20</v>
       </c>
-      <c r="J19" s="62"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="77" t="str">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="66" t="str">
         <f>CONCATENATE(endrepair_maxvol, " - x")</f>
         <v>10 - x</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="I20" s="62">
+      <c r="G20" s="67"/>
+      <c r="I20" s="61">
         <v>65</v>
       </c>
-      <c r="J20" s="62"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="80">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="69">
         <v>1.4</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="78">
+      <c r="E21" s="69"/>
+      <c r="F21" s="67">
         <f>SUM(D21*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="I21" s="62">
+      <c r="G21" s="67"/>
+      <c r="I21" s="61">
         <v>4</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="61"/>
       <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="80">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="69">
         <v>0.6</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="78">
+      <c r="E22" s="69"/>
+      <c r="F22" s="67">
         <f>SUM(D22*exp_rxns*(1+$D$17))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="D23" s="81">
+      <c r="D23" s="70">
         <f>SUM(D21:D22)+endrepair_maxvol</f>
         <v>12</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="13" t="str">
         <f>CONCATENATE("Add ",SUM(D21:D22)," µl of MM to each")</f>
         <v>Add 2 µl of MM to each</v>
@@ -2854,103 +3196,103 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="82" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82" t="str">
+      <c r="E26" s="71"/>
+      <c r="F26" s="71" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="I26" s="65" t="s">
+      <c r="G26" s="71"/>
+      <c r="I26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="77">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="66">
         <v>0.5</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="I27" s="62">
+      <c r="G27" s="67"/>
+      <c r="I27" s="61">
         <v>20</v>
       </c>
-      <c r="J27" s="62"/>
+      <c r="J27" s="61"/>
       <c r="K27" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="77">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="66">
         <v>6</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78">
+      <c r="E28" s="66"/>
+      <c r="F28" s="67">
         <f>SUM(D28*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="I28" s="62">
+      <c r="G28" s="67"/>
+      <c r="I28" s="61">
         <v>65</v>
       </c>
-      <c r="J28" s="62"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="77">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="66">
         <v>0.2</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78">
+      <c r="E29" s="66"/>
+      <c r="F29" s="67">
         <f>SUM(D29*exp_rxns*(1+$D$25))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="I29" s="62">
+      <c r="G29" s="67"/>
+      <c r="I29" s="61">
         <v>8</v>
       </c>
-      <c r="J29" s="62"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="D30" s="79">
+      <c r="D30" s="68">
         <f>SUM(D27:D29)+D23</f>
         <v>18.7</v>
       </c>
-      <c r="E30" s="79"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="13" t="str">
         <f>CONCATENATE("Add ",SUM(D28:D29)," µl of MM to each")</f>
         <v>Add 6.2 µl of MM to each</v>
@@ -2971,23 +3313,23 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -3010,23 +3352,23 @@
       <c r="C36" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="67"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <f>SUM(exp_rxns*D30)*0.4</f>
         <v>0</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="76">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="65">
         <f>SUM(B37*C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="76"/>
+      <c r="E37" s="65"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -3035,110 +3377,109 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1500</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B40" s="37"/>
       <c r="C40" s="9" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F40" s="37"/>
       <c r="G40" s="5" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="I41" s="65" t="s">
+      <c r="E41" s="53"/>
+      <c r="I41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="65"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="68">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="55">
         <f>IF(B37="",adaptlig_dna_maxvol,IF(SUM(adaptlig_targetmass/D37)&gt;adaptlig_dna_maxvol,adaptlig_dna_maxvol,SUM(adaptlig_targetmass/D37)))</f>
         <v>30</v>
       </c>
-      <c r="E42" s="68"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="5"/>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J42" s="62"/>
+      <c r="J42" s="61"/>
       <c r="K42" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="68">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="55">
         <f>IFERROR(SUM(adaptlig_dna_maxvol-D42),"")</f>
         <v>0</v>
       </c>
-      <c r="E43" s="68"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="62">
         <v>5</v>
       </c>
-      <c r="E44" s="64"/>
+      <c r="E44" s="62"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="62">
         <f>SUM(adaptlig_rxn_vol/5)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="64"/>
+      <c r="E45" s="62"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="62">
         <f>SUM(adaptlig_rxn_vol/10)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="64"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D47" s="74">
+      <c r="D47" s="63">
         <f>SUM(D42:D46)</f>
         <v>35</v>
       </c>
-      <c r="E47" s="74"/>
+      <c r="E47" s="63"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -3146,24 +3487,24 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
+      <c r="A50" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>370</v>
+      <c r="A51" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3173,38 +3514,38 @@
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71" t="s">
+      <c r="F52" s="58"/>
+      <c r="G52" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="71"/>
+      <c r="H52" s="58"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="72">
+      <c r="A53" s="59">
         <f>SUM(adaptlig_rxn_vol*0.5)</f>
         <v>0</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="62">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61">
         <f>SUM(C53*E53)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="62"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -3213,73 +3554,71 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B56" s="3">
-        <v>500</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B56" s="37"/>
       <c r="C56" s="9" t="str">
-        <f>CONCATENATE("ng of library (max volume = ", flowcell_maxvol,"µl)")</f>
-        <v>ng of library (max volume = 12µl)</v>
-      </c>
-      <c r="H56" s="19"/>
+        <f>CONCATENATE("ng of library (max volume = ", flowcell_maxvol,"µl), recommend 500 ng")</f>
+        <v>ng of library (max volume = 12µl), recommend 500 ng</v>
+      </c>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66" t="s">
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="66"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55">
         <f>IF(C53="",flowcell_maxvol,IF(SUM(flowcell_targetmass/G53)&gt;flowcell_maxvol,flowcell_maxvol,SUM(flowcell_targetmass/G53)))</f>
         <v>12</v>
       </c>
-      <c r="E58" s="68"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68" t="str">
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55" t="str">
         <f>IFERROR((IF(SUM(12-D58)=0,"-",SUM(12-D58))),"")</f>
         <v>-</v>
       </c>
-      <c r="E59" s="68"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="69">
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="56">
         <v>37.5</v>
       </c>
-      <c r="E60" s="69"/>
+      <c r="E60" s="56"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="69">
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="56">
         <v>25.5</v>
       </c>
-      <c r="E61" s="69"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
@@ -3291,81 +3630,81 @@
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="63"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="64" t="str">
+      <c r="B67" s="47"/>
+      <c r="C67" s="50" t="str">
         <f>IF(flowcell_status="New",0,"")</f>
         <v/>
       </c>
-      <c r="D67" s="64"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="63"/>
-      <c r="E68" s="9" t="s">
+      <c r="B68" s="47"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61" t="s">
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="9" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61" t="s">
+      <c r="B70" s="47"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="9" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="116">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
@@ -3485,41 +3824,41 @@
     <mergeCell ref="C68:D68"/>
   </mergeCells>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>COUNTIF(B56,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C7:C8 C11:C12 F16 B37:C37 B40 C53:E53 C64:C66 C68:C70">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>COUNTIF(B2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThanOrEqual">
       <formula>800</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>COUNTIF(F40,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3553,7 +3892,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>reference!$E$3:$E$4</xm:f>
@@ -3587,6 +3926,18 @@
           </x14:formula1>
           <xm:sqref>F40</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86E97738-BE4E-45D2-82E4-9BB20B6C5270}">
+          <x14:formula1>
+            <xm:f>reference!$E$11:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C64:D64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FD70BE5-C9FE-4FC2-BCF1-8C135E992CE5}">
+          <x14:formula1>
+            <xm:f>reference!$E$18:$E$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>C68:D68</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3601,8 +3952,8 @@
   </sheetPr>
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3615,3242 +3966,3242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="48.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="48.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105">
+        <v>1</v>
+      </c>
+      <c r="B3" s="106" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32" t="str">
+      <c r="K3" s="99" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L3" s="99" t="str">
+        <f t="shared" ref="L3:L34" si="0">IFERROR(SUM(endrepair_maxvol-K3),"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105">
+        <v>2</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="str">
         <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M4" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105">
+        <v>3</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105">
+        <v>4</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L6" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105">
+        <v>5</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105">
+        <v>6</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105">
+        <v>7</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105">
+        <v>8</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105">
+        <v>9</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="105">
+        <v>10</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105">
+        <v>11</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
+        <v>12</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
+        <v>13</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
+        <v>14</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
+        <v>15</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
+        <v>16</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
+        <v>17</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105">
+        <v>18</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="105">
+        <v>19</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="105">
+        <v>20</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M22" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105">
+        <v>21</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M23" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="105">
+        <v>22</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="105">
+        <v>23</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="105">
+        <v>24</v>
+      </c>
+      <c r="B26" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M26" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="105">
+        <v>25</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M27" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="105">
+        <v>26</v>
+      </c>
+      <c r="B28" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M28" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="105">
+        <v>27</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M29" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="105">
+        <v>28</v>
+      </c>
+      <c r="B30" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="105">
+        <v>29</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M31" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="105">
+        <v>30</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M32" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="105">
+        <v>31</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M33" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="105">
+        <v>32</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M34" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="105">
+        <v>33</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="101" t="str">
+        <f t="shared" ref="L35:L66" si="1">IFERROR(SUM(endrepair_maxvol-K35),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="105">
+        <v>34</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="105">
+        <v>35</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M37" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="105">
+        <v>36</v>
+      </c>
+      <c r="B38" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M38" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="105">
+        <v>37</v>
+      </c>
+      <c r="B39" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M39" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="105">
+        <v>38</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M40" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="105">
+        <v>39</v>
+      </c>
+      <c r="B41" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M41" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="105">
+        <v>40</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M42" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="105">
+        <v>41</v>
+      </c>
+      <c r="B43" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M43" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="105">
+        <v>42</v>
+      </c>
+      <c r="B44" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="K44" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M44" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="105">
+        <v>43</v>
+      </c>
+      <c r="B45" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="K45" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M45" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="105">
+        <v>44</v>
+      </c>
+      <c r="B46" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M46" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="105">
+        <v>45</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="K47" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M47" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="105">
+        <v>46</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M48" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="105">
+        <v>47</v>
+      </c>
+      <c r="B49" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="K49" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M49" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="105">
+        <v>48</v>
+      </c>
+      <c r="B50" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J50" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M50" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="105">
+        <v>49</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L51" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M51" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="105">
+        <v>50</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="K52" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L52" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M52" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="105">
+        <v>51</v>
+      </c>
+      <c r="B53" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K53" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L53" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M53" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="105">
+        <v>52</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J54" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M54" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="105">
+        <v>53</v>
+      </c>
+      <c r="B55" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="K55" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L55" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M55" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="105">
+        <v>54</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="K56" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M56" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="105">
+        <v>55</v>
+      </c>
+      <c r="B57" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M57" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="105">
+        <v>56</v>
+      </c>
+      <c r="B58" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M58" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="105">
+        <v>57</v>
+      </c>
+      <c r="B59" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J59" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L59" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M59" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="105">
+        <v>58</v>
+      </c>
+      <c r="B60" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J60" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M60" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="105">
+        <v>59</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L61" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M61" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="105">
+        <v>60</v>
+      </c>
+      <c r="B62" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J62" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="K62" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M62" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="105">
+        <v>61</v>
+      </c>
+      <c r="B63" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J63" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="K63" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M63" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="105">
+        <v>62</v>
+      </c>
+      <c r="B64" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J64" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="K64" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L64" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M64" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="105">
+        <v>63</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="K65" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M65" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="105">
+        <v>64</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J66" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L66" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M66" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="105">
+        <v>65</v>
+      </c>
+      <c r="B67" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J67" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="K67" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L67" s="101" t="str">
+        <f t="shared" ref="L67:L98" si="2">IFERROR(SUM(endrepair_maxvol-K67),"")</f>
+        <v/>
+      </c>
+      <c r="M67" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="105">
+        <v>66</v>
+      </c>
+      <c r="B68" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J68" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L68" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M68" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="105">
+        <v>67</v>
+      </c>
+      <c r="B69" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J69" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="K69" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L69" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M69" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="105">
+        <v>68</v>
+      </c>
+      <c r="B70" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="K70" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L70" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M70" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="105">
+        <v>69</v>
+      </c>
+      <c r="B71" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J71" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="K71" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L71" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M71" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="105">
+        <v>70</v>
+      </c>
+      <c r="B72" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J72" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K72" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L72" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M72" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="105">
+        <v>71</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J73" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="K73" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L73" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M73" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="105">
+        <v>72</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J74" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="K74" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L74" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M74" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="105">
+        <v>73</v>
+      </c>
+      <c r="B75" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J75" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="K75" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L75" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M75" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="105">
+        <v>74</v>
+      </c>
+      <c r="B76" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="K76" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L76" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M76" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="105">
+        <v>75</v>
+      </c>
+      <c r="B77" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J77" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L77" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M77" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="105">
+        <v>76</v>
+      </c>
+      <c r="B78" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J78" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K78" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L78" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M78" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="105">
+        <v>77</v>
+      </c>
+      <c r="B79" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="K79" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L79" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M79" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="105">
+        <v>78</v>
+      </c>
+      <c r="B80" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J80" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="K80" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L80" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M80" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="105">
+        <v>79</v>
+      </c>
+      <c r="B81" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J81" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="K81" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M81" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="105">
+        <v>80</v>
+      </c>
+      <c r="B82" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J82" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="K82" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L82" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M82" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="105">
+        <v>81</v>
+      </c>
+      <c r="B83" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J83" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K83" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L83" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M83" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="105">
+        <v>82</v>
+      </c>
+      <c r="B84" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J84" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="K84" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L84" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M84" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="105">
+        <v>83</v>
+      </c>
+      <c r="B85" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J85" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="K85" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L85" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M85" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="105">
+        <v>84</v>
+      </c>
+      <c r="B86" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J86" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="K86" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L86" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M86" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="105">
+        <v>85</v>
+      </c>
+      <c r="B87" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J87" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="K87" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L87" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M87" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="105">
+        <v>86</v>
+      </c>
+      <c r="B88" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J88" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L88" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M88" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="105">
+        <v>87</v>
+      </c>
+      <c r="B89" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J89" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="K89" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L89" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M89" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="105">
+        <v>88</v>
+      </c>
+      <c r="B90" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J90" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K90" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L90" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M90" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="105">
+        <v>89</v>
+      </c>
+      <c r="B91" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J91" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="K91" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L91" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M91" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="105">
+        <v>90</v>
+      </c>
+      <c r="B92" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J92" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="K92" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L92" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M92" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="105">
+        <v>91</v>
+      </c>
+      <c r="B93" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J93" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K93" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L93" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M93" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="105">
+        <v>92</v>
+      </c>
+      <c r="B94" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J94" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="K94" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L94" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M94" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="105">
+        <v>93</v>
+      </c>
+      <c r="B95" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J95" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K95" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L95" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M95" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="105">
+        <v>94</v>
+      </c>
+      <c r="B96" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J96" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="K96" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L96" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M96" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="105">
+        <v>95</v>
+      </c>
+      <c r="B97" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="24" t="str">
+        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
+        <v/>
+      </c>
+      <c r="J97" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="K97" s="101" t="str">
+        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
+        <v/>
+      </c>
+      <c r="L97" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M97" s="100" t="str">
+        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="107">
         <v>96</v>
       </c>
-      <c r="K3" s="34" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L3" s="34" t="str">
-        <f t="shared" ref="L3:L34" si="0">IFERROR(SUM(endrepair_maxvol-K3),"")</f>
-        <v/>
-      </c>
-      <c r="M3" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L4" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M4" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M5" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M6" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M8" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M9" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>9</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>10</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>12</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>13</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>14</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M16" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>15</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M17" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>16</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M18" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>17</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M19" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>18</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M20" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>19</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M21" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>20</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M22" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M23" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>22</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L24" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M24" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
-        <v>23</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L26" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M26" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
-        <v>25</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L27" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M27" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>26</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M28" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
-        <v>27</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L29" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M29" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
-        <v>28</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L30" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M30" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
-        <v>29</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="K31" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M31" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L32" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M32" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>31</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K33" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L33" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M33" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>32</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="K34" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L34" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M34" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>33</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="38" t="str">
-        <f t="shared" ref="L35:L66" si="1">IFERROR(SUM(endrepair_maxvol-K35),"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>34</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="K36" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L36" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M36" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>35</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="K37" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L37" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M37" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>36</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="K38" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L38" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M38" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>37</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="K39" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L39" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M39" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
-        <v>38</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L40" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M40" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
-        <v>39</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="K41" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L41" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M41" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="K42" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L42" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M42" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>41</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L43" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M43" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>42</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="K44" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L44" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M44" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
-        <v>43</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="K45" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L45" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M45" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>44</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="K46" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L46" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M46" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
-        <v>45</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L47" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M47" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>46</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="K48" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L48" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M48" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>47</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="K49" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L49" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M49" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>48</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L50" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M50" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
-        <v>49</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L51" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M51" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
-        <v>50</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="K52" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L52" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M52" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
-        <v>51</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="K53" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L53" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M53" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
-        <v>52</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="K54" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L54" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M54" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26">
-        <v>53</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="K55" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L55" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M55" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
-        <v>54</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="K56" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L56" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M56" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
-        <v>55</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="K57" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L57" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M57" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
-        <v>56</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="K58" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L58" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M58" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
-        <v>57</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="K59" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L59" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M59" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
-        <v>58</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L60" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M60" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>59</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="K61" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L61" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M61" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
-        <v>60</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="K62" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L62" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M62" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
-        <v>61</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="K63" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L63" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M63" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
-        <v>62</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="K64" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L64" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M64" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
-        <v>63</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="K65" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L65" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M65" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
-        <v>64</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="K66" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L66" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M66" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
-        <v>65</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="K67" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L67" s="38" t="str">
-        <f t="shared" ref="L67:L98" si="2">IFERROR(SUM(endrepair_maxvol-K67),"")</f>
-        <v/>
-      </c>
-      <c r="M67" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
-        <v>66</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="K68" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L68" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M68" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
-        <v>67</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="K69" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L69" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M69" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
-        <v>68</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="K70" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L70" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M70" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
-        <v>69</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="K71" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L71" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M71" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
-        <v>70</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="K72" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L72" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M72" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
-        <v>71</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="K73" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L73" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M73" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
-        <v>72</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="K74" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L74" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M74" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26">
-        <v>73</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J75" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K75" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L75" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M75" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
-        <v>74</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J76" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K76" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L76" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M76" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
-        <v>75</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="K77" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L77" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M77" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
-        <v>76</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="K78" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L78" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M78" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26">
-        <v>77</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="K79" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L79" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M79" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26">
-        <v>78</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J80" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="K80" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L80" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M80" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
-        <v>79</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="K81" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L81" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M81" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
-        <v>80</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="K82" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L82" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M82" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26">
-        <v>81</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J83" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="K83" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L83" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M83" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
-        <v>82</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J84" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="K84" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L84" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M84" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26">
-        <v>83</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J85" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="K85" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L85" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M85" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
-        <v>84</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J86" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="K86" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L86" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M86" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26">
-        <v>85</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J87" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="K87" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L87" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M87" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26">
-        <v>86</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J88" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="K88" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L88" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M88" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
-        <v>87</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J89" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="K89" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L89" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M89" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26">
-        <v>88</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J90" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="K90" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L90" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M90" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26">
-        <v>89</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J91" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K91" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L91" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M91" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26">
-        <v>90</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J92" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="K92" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L92" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M92" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26">
-        <v>91</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J93" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K93" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L93" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M93" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
-        <v>92</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J94" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="K94" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L94" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M94" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26">
-        <v>93</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J95" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="K95" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L95" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M95" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26">
-        <v>94</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J96" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="K96" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L96" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M96" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
-        <v>95</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="32" t="str">
-        <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
-        <v/>
-      </c>
-      <c r="J97" s="37" t="s">
+      <c r="B98" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="K97" s="38" t="str">
-        <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
-        <v/>
-      </c>
-      <c r="L97" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M97" s="35" t="str">
-        <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41">
-        <v>96</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="40"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="42"/>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
-      <c r="I98" s="32" t="str">
+      <c r="I98" s="24" t="str">
         <f>IF(OR(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]="", tbl_SeqLib[[#This Row],[PCR Dilution Factor]]=""),"",SUM(tbl_SeqLib[[#This Row],[Qubit PCR '[DNA'] (ng/µl)]]*tbl_SeqLib[[#This Row],[PCR Dilution Factor]]))</f>
         <v/>
       </c>
-      <c r="J98" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="K98" s="44" t="str">
+      <c r="J98" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="K98" s="102" t="str">
         <f>IFERROR(IF(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]=0,endrepair_maxvol,IF(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]&gt;endrepair_maxvol,endrepair_maxvol,SUM(endrepair_targetmass/tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]]))),"")</f>
         <v/>
       </c>
-      <c r="L98" s="44" t="str">
+      <c r="L98" s="102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M98" s="35" t="str">
+      <c r="M98" s="100" t="str">
         <f>IF(ISBLANK(tbl_SeqLib[[#This Row],[sWGA Identifier]]),"",CONCATENATE(exp_id,"_",tbl_SeqLib[[#This Row],[Well]]))</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
+    <row r="99" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -6937,13 +7288,14 @@
       <c r="F111" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/6LgGsLz5w/h98wocxQ/Mls/3DpAOcE/b5t+gneA1feeRYfP1jjQI85k/6dzeYvHVJ7NL0S4ATa7q0KiUgfDQw==" saltValue="kq4PU3jJXFqbFUG+tgJiww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:H98 G3:H9 J3:J98">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>COUNTIF(C1,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6962,117 +7314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7089,187 +7338,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>306</v>
+      <c r="A1" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="E2" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>311</v>
+      <c r="A2" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3">
+        <v>303</v>
+      </c>
+      <c r="B3" s="108">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>372</v>
+        <v>304</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4">
+        <v>310</v>
+      </c>
+      <c r="B4" s="108">
         <f>IF(adaptlig_rxn_vol=100,65,30)</f>
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>373</v>
+        <v>304</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5">
+        <v>313</v>
+      </c>
+      <c r="B5" s="108">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="E7">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="E7" s="108">
         <v>100</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>324</v>
+      <c r="G7" s="33" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8">
+        <v>319</v>
+      </c>
+      <c r="E8" s="108">
         <v>50</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>326</v>
+      <c r="G8" s="33" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="58" t="s">
-        <v>329</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
-        <v>363</v>
+      <c r="A11" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
+        <v>361</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="108" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="108" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="15"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="93" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="97" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B11" s="93"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="98" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="92" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="15"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="93"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="92" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7285,7 +7839,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7300,170 +7854,171 @@
   <sheetData>
     <row r="1" spans="1:23" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>exp_id</f>
-        <v/>
-      </c>
-      <c r="B2">
-        <f>exp_date</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>exp_user</f>
-        <v>0</v>
+        <f>IF(LEN(exp_id)=0,"",exp_id)</f>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(LEN(exp_date)=0,"",exp_date)</f>
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(LEN(exp_user)=0,"",exp_user)</f>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <f>exp_type</f>
+        <f>IF(LEN(exp_type)=0,"",exp_type)</f>
         <v>seqlib</v>
       </c>
       <c r="E2">
-        <f>exp_version</f>
-        <v>4</v>
-      </c>
-      <c r="F2" s="59">
-        <f>exp_notes</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="59" t="str">
-        <f>exp_summary</f>
-        <v/>
-      </c>
-      <c r="H2">
-        <f>exp_rxns</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>endrepair_targetmass</f>
-        <v>0</v>
+        <f>IF(LEN(exp_version)=0,"",exp_version)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(LEN(exp_notes)=0,"",exp_notes)</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(LEN(endrepair_targetmass)=0,"",endrepair_targetmass)</f>
+        <v/>
       </c>
       <c r="J2">
-        <f>endrepair_maxvol</f>
+        <f>IF(LEN(endrepair_maxvol)=0,"",endrepair_maxvol)</f>
         <v>10</v>
       </c>
-      <c r="K2">
-        <f>DNAconc_pooled</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>adaptlig_targetmass</f>
-        <v>1500</v>
+      <c r="K2" t="str">
+        <f>IF(DNAconc_pooled=0,"",DNAconc_pooled)</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(adaptlig_targetmass=0,"",adaptlig_targetmass)</f>
+        <v/>
       </c>
       <c r="M2">
-        <f>adaptlig_dna_maxvol</f>
+        <f>IF(adaptlig_dna_maxvol=0,"",adaptlig_dna_maxvol)</f>
         <v>30</v>
       </c>
-      <c r="N2">
-        <f>DNAconc_library</f>
-        <v>0</v>
+      <c r="N2" t="str">
+        <f>IF(DNAconc_library=0,"",DNAconc_library)</f>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <f>seq_platform</f>
-        <v>Mk1b</v>
-      </c>
-      <c r="P2">
-        <f>flowcell_targetmass</f>
-        <v>500</v>
+        <f>IF(LEN(seq_platform)=0,"",seq_platform)</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(LEN(flowcell_targetmass)=0,"",flowcell_targetmass)</f>
+        <v/>
       </c>
       <c r="Q2">
-        <f>flowcell_maxvol</f>
+        <f>IF(LEN(flowcell_maxvol)=0,"",flowcell_maxvol)</f>
         <v>12</v>
       </c>
-      <c r="R2">
-        <f>flowcell_id</f>
-        <v>0</v>
+      <c r="R2" t="str">
+        <f>IF(LEN(flowcell_id)=0,"",flowcell_id)</f>
+        <v/>
       </c>
       <c r="S2" t="str">
-        <f>flowcell_chemisty</f>
-        <v>R10.4.1</v>
-      </c>
-      <c r="T2">
-        <f>flowcell_status</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>flowcell_checkpores</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>flowcell_runduration</f>
-        <v>0</v>
+        <f>IF(LEN(flowcell_chemisty)=0,"",flowcell_chemisty)</f>
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(LEN(flowcell_status)=0,"",flowcell_status)</f>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f>IF(LEN(flowcell_checkpores)=0,"",flowcell_checkpores)</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f>IF(LEN(flowcell_runduration)=0,"",flowcell_runduration)</f>
+        <v/>
       </c>
       <c r="W2" t="str">
-        <f>flowcell_usage_hrs</f>
+        <f>IF(LEN(flowcell_usage_hrs)=0,"",flowcell_usage_hrs)</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QaYerJ8OS0IPRj4PLsgalY6U+0b1ML2bJwsD52pGD2R7zsimXoKzK87LY1YSgenkUaQaalBbi66PjDQsK3y7hA==" saltValue="x92BJ5W22o5xkgEa1S/5rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -7480,7 +8035,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7495,28 +8050,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10784,6 +11339,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
